--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cc\Desktop\Testing\Selenium\Projects\Geoworkz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59CAA9-4C67-4D72-84F3-BFDEFE0B4618}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CA628D-D209-4A21-BFB4-4F81C253D20C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470" xr2:uid="{24CAF8DB-3AF1-4AAE-B026-DE78B2CDDDEE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Sr. No</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>TC 5</t>
-  </si>
-  <si>
-    <t>TC 6</t>
-  </si>
-  <si>
-    <t>TC 7</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that below things are displayed on homepage
@@ -69,15 +63,6 @@
     <t xml:space="preserve">Verify that below things are displayed on homepage
 5. Contact link
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that below things are displayed on homepage
-6. Login button
-</t>
-  </si>
-  <si>
-    <t>Verify that below things are displayed on homepage
-7. Cart icon</t>
   </si>
   <si>
     <t>Test Cases</t>
@@ -440,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780023B-FE4A-4E05-99B1-AE45E0B9875B}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -464,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -472,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -480,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -488,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -496,23 +481,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cc\Desktop\Testing\Selenium\Projects\Geoworkz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CA628D-D209-4A21-BFB4-4F81C253D20C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9998B47A-E727-4CC7-86CE-AE47FEBE4D65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470" xr2:uid="{24CAF8DB-3AF1-4AAE-B026-DE78B2CDDDEE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sr. No</t>
   </si>
@@ -71,6 +71,15 @@
     <t xml:space="preserve">Verify that below things are displayed on homepage
 1. geoworkz logo
 </t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>Launch Homepage&gt;&gt;Mouse hover on Product&gt;&gt;Our Plans&gt;&gt;SignUp button for Freelancer plan&gt;&gt;On Checkout page, verify that it’s a freelancer plan and of 5000 words</t>
+  </si>
+  <si>
+    <t>TC7</t>
   </si>
 </sst>
 </file>
@@ -94,10 +103,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -106,9 +141,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -425,63 +469,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780023B-FE4A-4E05-99B1-AE45E0B9875B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
